--- a/biology/Botanique/Lantana/Lantana.xlsx
+++ b/biology/Botanique/Lantana/Lantana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lantana comprend environ 150 espèces de plantes à fleurs de couleurs variées (jaunes, marron, blancs, etc.) de la famille des Verbénacées.
 Le lantana est un arbrisseau vivace pantropical originaire d'Amérique du Sud adapté aux conditions méditerranéennes. Cela signifie que dans certaines régions, il n'est pas nécessaire de les mettre hors gel mais dans d'autres il faut absolument les rentrer pour l'hiver. Il est possible de les trouver sous différentes formes : arbustive, pour parterre ou encore en tiges. Leur parfum est légèrement poivré et attire particulièrement les papillons et les abeilles (Apis mellifera).
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lantana achyranthifolia Desf.
@@ -672,7 +686,9 @@
           <t>Quelques photos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lantana camara
